--- a/temp_doc/MAPEL SAS XII 2024.xlsx
+++ b/temp_doc/MAPEL SAS XII 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF5A05-99F9-014C-BB53-A37877320C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3433AD51-8A1F-3044-8061-5AC7312865FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{A8D10232-BF33-CF4C-9422-4144BBD77EBD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{A8D10232-BF33-CF4C-9422-4144BBD77EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="TJKT" sheetId="1" r:id="rId1"/>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
